--- a/processed data.xlsx
+++ b/processed data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2149605_ed_ac_uk/Documents/TAOR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YIHAO\Desktop\UOE\Topics in Applied Operational Research\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7DFD1858-C159-4136-AA73-7CD2F00BA20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE409B99-CFBC-4773-AD3A-1EC8B57ECA4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA2E67-F79E-44FC-8409-D497B9EF2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{C34E7FE9-A01C-4F10-A10F-B95648092053}"/>
   </bookViews>
@@ -1402,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EF64B0-1DBB-41F5-B69D-F23A45AE7BA9}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J311" sqref="J311"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="J297" sqref="J297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5697,12 +5697,6 @@
         <v>39.2545231</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B307">
-        <f>SUM(B2:B306)</f>
-        <v>564</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/processed data.xlsx
+++ b/processed data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YIHAO\Desktop\UOE\Topics in Applied Operational Research\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA2E67-F79E-44FC-8409-D497B9EF2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD526870-6586-42F5-BE75-96AB02F5849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{C34E7FE9-A01C-4F10-A10F-B95648092053}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="310">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -964,6 +964,10 @@
   </si>
   <si>
     <t>9999 WEST RD</t>
+  </si>
+  <si>
+    <t>depot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1066,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1090,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1402,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EF64B0-1DBB-41F5-B69D-F23A45AE7BA9}">
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="J297" sqref="J297"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="H310" sqref="H310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1429,4272 +1439,4300 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-84.486666700000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39.171388899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>-84.472240900000003</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>39.225141800000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>-84.7726392</v>
-      </c>
-      <c r="D3">
-        <v>39.1489543</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>-84.473174900000004</v>
+        <v>-84.7726392</v>
       </c>
       <c r="D4">
-        <v>39.248918500000002</v>
+        <v>39.1489543</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-84.3311329</v>
+        <v>-84.473174900000004</v>
       </c>
       <c r="D5">
-        <v>39.267321000000003</v>
+        <v>39.248918500000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>-84.302259899999996</v>
+        <v>-84.3311329</v>
       </c>
       <c r="D6">
-        <v>39.236636599999997</v>
+        <v>39.267321000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-84.5243897</v>
+        <v>-84.302259899999996</v>
       </c>
       <c r="D7">
-        <v>39.1059445</v>
+        <v>39.236636599999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-84.474472899999995</v>
+        <v>-84.5243897</v>
       </c>
       <c r="D8">
-        <v>39.2523914</v>
+        <v>39.1059445</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-84.472635999999994</v>
+        <v>-84.474472899999995</v>
       </c>
       <c r="D9">
-        <v>39.234075400000002</v>
+        <v>39.2523914</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-84.787482100000005</v>
+        <v>-84.472635999999994</v>
       </c>
       <c r="D10">
-        <v>39.262456299999997</v>
+        <v>39.234075400000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>-84.511009299999998</v>
+        <v>-84.787482100000005</v>
       </c>
       <c r="D11">
-        <v>39.261004900000003</v>
+        <v>39.262456299999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>-84.575053999999994</v>
+        <v>-84.511009299999998</v>
       </c>
       <c r="D12">
-        <v>39.265733099999999</v>
+        <v>39.261004900000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>-84.420403899999997</v>
+        <v>-84.575053999999994</v>
       </c>
       <c r="D13">
-        <v>39.256184500000003</v>
+        <v>39.265733099999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-84.608341899999999</v>
+        <v>-84.420403899999997</v>
       </c>
       <c r="D14">
-        <v>39.267449399999997</v>
+        <v>39.256184500000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>-84.518929499999999</v>
+        <v>-84.608341899999999</v>
       </c>
       <c r="D15">
-        <v>39.299361099999999</v>
+        <v>39.267449399999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>-84.375282900000002</v>
+        <v>-84.518929499999999</v>
       </c>
       <c r="D16">
-        <v>39.256447199999997</v>
+        <v>39.299361099999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>-84.796899699999997</v>
+        <v>-84.375282900000002</v>
       </c>
       <c r="D17">
-        <v>39.242033499999998</v>
+        <v>39.256447199999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>-84.403764899999999</v>
+        <v>-84.796899699999997</v>
       </c>
       <c r="D18">
-        <v>39.267646800000001</v>
+        <v>39.242033499999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-84.403723900000003</v>
+        <v>-84.403764899999999</v>
       </c>
       <c r="D19">
-        <v>39.269302099999997</v>
+        <v>39.267646800000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>-84.493949499999999</v>
+        <v>-84.403723900000003</v>
       </c>
       <c r="D20">
-        <v>39.273438499999997</v>
+        <v>39.269302099999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>-84.565053700000007</v>
+        <v>-84.493949499999999</v>
       </c>
       <c r="D21">
-        <v>39.281304900000002</v>
+        <v>39.273438499999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-84.4833292</v>
+        <v>-84.565053700000007</v>
       </c>
       <c r="D22">
-        <v>39.276420899999998</v>
+        <v>39.281304900000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>-84.800490800000006</v>
+        <v>-84.4833292</v>
       </c>
       <c r="D23">
-        <v>39.256867999999997</v>
+        <v>39.276420899999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>-84.330658299999996</v>
+        <v>-84.800490800000006</v>
       </c>
       <c r="D24">
-        <v>39.269488099999997</v>
+        <v>39.256867999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>-84.555717700000002</v>
+        <v>-84.330658299999996</v>
       </c>
       <c r="D25">
-        <v>39.288240100000003</v>
+        <v>39.269488099999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>-84.529345500000005</v>
+        <v>-84.555717700000002</v>
       </c>
       <c r="D26">
-        <v>39.216511199999999</v>
+        <v>39.288240100000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>-84.523488599999993</v>
+        <v>-84.529345500000005</v>
       </c>
       <c r="D27">
-        <v>39.287165000000002</v>
+        <v>39.216511199999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>-84.571787</v>
+        <v>-84.523488599999993</v>
       </c>
       <c r="D28">
-        <v>39.292335999999999</v>
+        <v>39.287165000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>-84.512203299999996</v>
+        <v>-84.571787</v>
       </c>
       <c r="D29">
-        <v>39.290657699999997</v>
+        <v>39.292335999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>-84.444596099999998</v>
+        <v>-84.512203299999996</v>
       </c>
       <c r="D30">
-        <v>39.286797</v>
+        <v>39.290657699999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>-84.285030699999993</v>
+        <v>-84.444596099999998</v>
       </c>
       <c r="D31">
-        <v>39.276605000000004</v>
+        <v>39.286797</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>-84.376135099999999</v>
+        <v>-84.285030699999993</v>
       </c>
       <c r="D32">
-        <v>39.073514899999999</v>
+        <v>39.276605000000004</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>-84.598911400000006</v>
+        <v>-84.376135099999999</v>
       </c>
       <c r="D33">
-        <v>39.117161400000001</v>
+        <v>39.073514899999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>-84.315960399999994</v>
+        <v>-84.598911400000006</v>
       </c>
       <c r="D34">
-        <v>39.2843929</v>
+        <v>39.117161400000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>-84.309084400000003</v>
+        <v>-84.315960399999994</v>
       </c>
       <c r="D35">
-        <v>39.284453599999999</v>
+        <v>39.2843929</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>-84.645010499999998</v>
+        <v>-84.309084400000003</v>
       </c>
       <c r="D36">
-        <v>39.1177055</v>
+        <v>39.284453599999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>-84.501208500000004</v>
+        <v>-84.645010499999998</v>
       </c>
       <c r="D37">
-        <v>39.298586299999997</v>
+        <v>39.1177055</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>-84.573192000000006</v>
+        <v>-84.501208500000004</v>
       </c>
       <c r="D38">
-        <v>39.302833399999997</v>
+        <v>39.298586299999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>-84.481326300000006</v>
+        <v>-84.573192000000006</v>
       </c>
       <c r="D39">
-        <v>39.291605599999997</v>
+        <v>39.302833399999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>-84.496428399999999</v>
+        <v>-84.481326300000006</v>
       </c>
       <c r="D40">
-        <v>39.168004400000001</v>
+        <v>39.291605599999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>-84.527543499999993</v>
+        <v>-84.496428399999999</v>
       </c>
       <c r="D41">
-        <v>39.108160599999998</v>
+        <v>39.168004400000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>-84.284302100000005</v>
+        <v>-84.527543499999993</v>
       </c>
       <c r="D42">
-        <v>39.2876069</v>
+        <v>39.108160599999998</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>-84.378148400000001</v>
+        <v>-84.284302100000005</v>
       </c>
       <c r="D43">
-        <v>39.2939109</v>
+        <v>39.2876069</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>-84.543314100000003</v>
+        <v>-84.378148400000001</v>
       </c>
       <c r="D44">
-        <v>39.305353500000002</v>
+        <v>39.2939109</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="6">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>-84.562325599999994</v>
+        <v>-84.543314100000003</v>
       </c>
       <c r="D45">
-        <v>39.115119</v>
+        <v>39.305353500000002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>-84.284676200000007</v>
+        <v>-84.562325599999994</v>
       </c>
       <c r="D46">
-        <v>39.270111700000001</v>
+        <v>39.115119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>-84.432696800000002</v>
+        <v>-84.284676200000007</v>
       </c>
       <c r="D47">
-        <v>39.136289900000001</v>
+        <v>39.270111700000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>-84.540354600000001</v>
+        <v>-84.432696800000002</v>
       </c>
       <c r="D48">
-        <v>39.203191599999997</v>
+        <v>39.136289900000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>-84.447582699999998</v>
+        <v>-84.540354600000001</v>
       </c>
       <c r="D49">
-        <v>39.300393300000003</v>
+        <v>39.203191599999997</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>-84.710697499999995</v>
+        <v>-84.447582699999998</v>
       </c>
       <c r="D50">
-        <v>39.137893099999999</v>
+        <v>39.300393300000003</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>-84.275036299999996</v>
+        <v>-84.710697499999995</v>
       </c>
       <c r="D51">
-        <v>39.258037600000002</v>
+        <v>39.137893099999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>-84.321596799999995</v>
+        <v>-84.275036299999996</v>
       </c>
       <c r="D52">
-        <v>39.0765387</v>
+        <v>39.258037600000002</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>-84.652977000000007</v>
+        <v>-84.321596799999995</v>
       </c>
       <c r="D53">
-        <v>39.122840699999998</v>
+        <v>39.0765387</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>-84.471519499999999</v>
+        <v>-84.652977000000007</v>
       </c>
       <c r="D54">
-        <v>39.177133699999999</v>
+        <v>39.122840699999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>-84.546002099999995</v>
+        <v>-84.471519499999999</v>
       </c>
       <c r="D55">
-        <v>39.230993300000002</v>
+        <v>39.177133699999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>-84.462714399999996</v>
+        <v>-84.546002099999995</v>
       </c>
       <c r="D56">
-        <v>39.203082600000002</v>
+        <v>39.230993300000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>-84.548576400000002</v>
+        <v>-84.462714399999996</v>
       </c>
       <c r="D57">
-        <v>39.217059800000001</v>
+        <v>39.203082600000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>-84.440528099999995</v>
+        <v>-84.548576400000002</v>
       </c>
       <c r="D58">
-        <v>39.2319417</v>
+        <v>39.217059800000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>-84.527830199999997</v>
+        <v>-84.440528099999995</v>
       </c>
       <c r="D59">
-        <v>39.114135099999999</v>
+        <v>39.2319417</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>-84.383691400000004</v>
+        <v>-84.527830199999997</v>
       </c>
       <c r="D60">
-        <v>39.085427899999999</v>
+        <v>39.114135099999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>-84.553771999999995</v>
+        <v>-84.383691400000004</v>
       </c>
       <c r="D61">
-        <v>39.134724200000001</v>
+        <v>39.085427899999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>-84.468046599999994</v>
+        <v>-84.553771999999995</v>
       </c>
       <c r="D62">
-        <v>39.145247300000001</v>
+        <v>39.134724200000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>-84.465890999999999</v>
+        <v>-84.468046599999994</v>
       </c>
       <c r="D63">
-        <v>39.158442600000001</v>
+        <v>39.145247300000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>-84.467265400000002</v>
+        <v>-84.465890999999999</v>
       </c>
       <c r="D64">
-        <v>39.145817399999999</v>
+        <v>39.158442600000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>-84.555484800000002</v>
+        <v>-84.467265400000002</v>
       </c>
       <c r="D65">
-        <v>39.218511900000003</v>
+        <v>39.145817399999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>-84.390329399999999</v>
+        <v>-84.555484800000002</v>
       </c>
       <c r="D66">
-        <v>39.0880729</v>
+        <v>39.218511900000003</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>-84.4585601</v>
+        <v>-84.390329399999999</v>
       </c>
       <c r="D67">
-        <v>39.187899700000003</v>
+        <v>39.0880729</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>-84.553626899999998</v>
+        <v>-84.4585601</v>
       </c>
       <c r="D68">
-        <v>39.296017599999999</v>
+        <v>39.187899700000003</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="6">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>-84.552275899999998</v>
+        <v>-84.553626899999998</v>
       </c>
       <c r="D69">
-        <v>39.147426799999998</v>
+        <v>39.296017599999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>-84.558341900000002</v>
+        <v>-84.552275899999998</v>
       </c>
       <c r="D70">
-        <v>39.218757600000004</v>
+        <v>39.147426799999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>-84.558375499999997</v>
+        <v>-84.558341900000002</v>
       </c>
       <c r="D71">
-        <v>39.250370199999999</v>
+        <v>39.218757600000004</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>-84.330498300000002</v>
+        <v>-84.558375499999997</v>
       </c>
       <c r="D72">
-        <v>39.0871146</v>
+        <v>39.250370199999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>-84.461524499999996</v>
+        <v>-84.330498300000002</v>
       </c>
       <c r="D73">
-        <v>39.134246500000003</v>
+        <v>39.0871146</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="6">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>-84.345641599999993</v>
+        <v>-84.461524499999996</v>
       </c>
       <c r="D74">
-        <v>39.090052700000001</v>
+        <v>39.134246500000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>-84.558617100000006</v>
+        <v>-84.345641599999993</v>
       </c>
       <c r="D75">
-        <v>39.261077700000001</v>
+        <v>39.090052700000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>-84.816671700000001</v>
+        <v>-84.558617100000006</v>
       </c>
       <c r="D76">
-        <v>39.263739000000001</v>
+        <v>39.261077700000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>-84.523980199999997</v>
+        <v>-84.816671700000001</v>
       </c>
       <c r="D77">
-        <v>39.267693700000002</v>
+        <v>39.263739000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>-84.746215599999999</v>
+        <v>-84.523980199999997</v>
       </c>
       <c r="D78">
-        <v>39.151366199999998</v>
+        <v>39.267693700000002</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>-84.551457099999993</v>
+        <v>-84.746215599999999</v>
       </c>
       <c r="D79">
-        <v>39.104088500000003</v>
+        <v>39.151366199999998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>-84.561486500000001</v>
+        <v>-84.551457099999993</v>
       </c>
       <c r="D80">
-        <v>39.2293898</v>
+        <v>39.104088500000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>-84.459598099999994</v>
+        <v>-84.561486500000001</v>
       </c>
       <c r="D81">
-        <v>39.129200300000001</v>
+        <v>39.2293898</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="6">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>-84.621217200000004</v>
+        <v>-84.459598099999994</v>
       </c>
       <c r="D82">
-        <v>39.132424700000001</v>
+        <v>39.129200300000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>-84.450453499999995</v>
+        <v>-84.621217200000004</v>
       </c>
       <c r="D83">
-        <v>39.168681900000003</v>
+        <v>39.132424700000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>-84.562632600000001</v>
+        <v>-84.450453499999995</v>
       </c>
       <c r="D84">
-        <v>39.1252499</v>
+        <v>39.168681900000003</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="6">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>-84.495056000000005</v>
+        <v>-84.562632600000001</v>
       </c>
       <c r="D85">
-        <v>39.123622099999999</v>
+        <v>39.1252499</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>-84.564638200000005</v>
+        <v>-84.495056000000005</v>
       </c>
       <c r="D86">
-        <v>39.154406700000003</v>
+        <v>39.123622099999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>-84.453980299999998</v>
+        <v>-84.564638200000005</v>
       </c>
       <c r="D87">
-        <v>39.140566399999997</v>
+        <v>39.154406700000003</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>-84.341800399999997</v>
+        <v>-84.453980299999998</v>
       </c>
       <c r="D88">
-        <v>39.1012415</v>
+        <v>39.140566399999997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>-84.569989899999996</v>
+        <v>-84.341800399999997</v>
       </c>
       <c r="D89">
-        <v>39.257305700000003</v>
+        <v>39.1012415</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="6">
         <v>2</v>
       </c>
       <c r="C90">
-        <v>-84.451642800000002</v>
+        <v>-84.569989899999996</v>
       </c>
       <c r="D90">
-        <v>39.227897900000002</v>
+        <v>39.257305700000003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>-84.461689300000003</v>
+        <v>-84.451642800000002</v>
       </c>
       <c r="D91">
-        <v>39.123745800000002</v>
+        <v>39.227897900000002</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="6">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>-84.483977899999999</v>
+        <v>-84.461689300000003</v>
       </c>
       <c r="D92">
-        <v>39.126365399999997</v>
+        <v>39.123745800000002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>-84.477730600000001</v>
+        <v>-84.483977899999999</v>
       </c>
       <c r="D93">
-        <v>39.197851</v>
+        <v>39.126365399999997</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>-84.366512900000004</v>
+        <v>-84.477730600000001</v>
       </c>
       <c r="D94">
-        <v>39.104112800000003</v>
+        <v>39.197851</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>-84.487064399999994</v>
+        <v>-84.366512900000004</v>
       </c>
       <c r="D95">
-        <v>39.1286366</v>
+        <v>39.104112800000003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>-84.571718700000005</v>
+        <v>-84.487064399999994</v>
       </c>
       <c r="D96">
-        <v>39.189619200000003</v>
+        <v>39.1286366</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>-84.573532900000004</v>
+        <v>-84.571718700000005</v>
       </c>
       <c r="D97">
-        <v>39.242510799999998</v>
+        <v>39.189619200000003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>-84.441922700000006</v>
+        <v>-84.573532900000004</v>
       </c>
       <c r="D98">
-        <v>39.139181999999998</v>
+        <v>39.242510799999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="6">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>-84.441116800000003</v>
+        <v>-84.441922700000006</v>
       </c>
       <c r="D99">
-        <v>39.139144799999997</v>
+        <v>39.139181999999998</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>-84.579354300000006</v>
+        <v>-84.441116800000003</v>
       </c>
       <c r="D100">
-        <v>39.2139849</v>
+        <v>39.139144799999997</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>-84.508823399999997</v>
+        <v>-84.579354300000006</v>
       </c>
       <c r="D101">
-        <v>39.131892200000003</v>
+        <v>39.2139849</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>-84.506447100000003</v>
+        <v>-84.508823399999997</v>
       </c>
       <c r="D102">
-        <v>39.132510000000003</v>
+        <v>39.131892200000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>-84.515338900000003</v>
+        <v>-84.506447100000003</v>
       </c>
       <c r="D103">
-        <v>39.134102300000002</v>
+        <v>39.132510000000003</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="6">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>-84.535104700000005</v>
+        <v>-84.515338900000003</v>
       </c>
       <c r="D104">
-        <v>39.136400700000003</v>
+        <v>39.134102300000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>-84.598634200000006</v>
+        <v>-84.535104700000005</v>
       </c>
       <c r="D105">
-        <v>39.1477997</v>
+        <v>39.136400700000003</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="6">
         <v>2</v>
       </c>
       <c r="C106">
-        <v>-84.583530100000004</v>
+        <v>-84.598634200000006</v>
       </c>
       <c r="D106">
-        <v>39.220313500000003</v>
+        <v>39.1477997</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>-84.810344400000005</v>
+        <v>-84.583530100000004</v>
       </c>
       <c r="D107">
-        <v>39.258090199999998</v>
+        <v>39.220313500000003</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>-84.6007721</v>
+        <v>-84.810344400000005</v>
       </c>
       <c r="D108">
-        <v>39.1349084</v>
+        <v>39.258090199999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="6">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>-84.597823199999993</v>
+        <v>-84.6007721</v>
       </c>
       <c r="D109">
-        <v>39.147072199999997</v>
+        <v>39.1349084</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>-84.599448300000006</v>
+        <v>-84.597823199999993</v>
       </c>
       <c r="D110">
-        <v>39.148964700000001</v>
+        <v>39.147072199999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>-84.428809200000003</v>
+        <v>-84.599448300000006</v>
       </c>
       <c r="D111">
-        <v>39.139346099999997</v>
+        <v>39.148964700000001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="6">
         <v>2</v>
       </c>
       <c r="C112">
-        <v>-84.5869809</v>
+        <v>-84.428809200000003</v>
       </c>
       <c r="D112">
-        <v>39.199528000000001</v>
+        <v>39.139346099999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>-84.611607100000001</v>
+        <v>-84.5869809</v>
       </c>
       <c r="D113">
-        <v>39.143453600000001</v>
+        <v>39.199528000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>-84.668058500000001</v>
+        <v>-84.611607100000001</v>
       </c>
       <c r="D114">
-        <v>39.146330499999998</v>
+        <v>39.143453600000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="6">
         <v>2</v>
       </c>
       <c r="C115">
-        <v>-84.582518899999997</v>
+        <v>-84.668058500000001</v>
       </c>
       <c r="D115">
-        <v>39.253807899999998</v>
+        <v>39.146330499999998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="6">
         <v>2</v>
       </c>
       <c r="C116">
-        <v>-84.507348399999998</v>
+        <v>-84.582518899999997</v>
       </c>
       <c r="D116">
-        <v>39.101007000000003</v>
+        <v>39.253807899999998</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>-84.648964399999997</v>
+        <v>-84.507348399999998</v>
       </c>
       <c r="D117">
-        <v>39.147304099999999</v>
+        <v>39.101007000000003</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>-84.475423599999999</v>
+        <v>-84.648964399999997</v>
       </c>
       <c r="D118">
-        <v>39.136517400000002</v>
+        <v>39.147304099999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>-84.429886499999995</v>
+        <v>-84.475423599999999</v>
       </c>
       <c r="D119">
-        <v>39.127426100000001</v>
+        <v>39.136517400000002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>-84.588103700000005</v>
+        <v>-84.429886499999995</v>
       </c>
       <c r="D120">
-        <v>39.214232799999998</v>
+        <v>39.127426100000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>-84.501222999999996</v>
+        <v>-84.588103700000005</v>
       </c>
       <c r="D121">
-        <v>39.147564799999998</v>
+        <v>39.214232799999998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>-84.587963799999997</v>
+        <v>-84.501222999999996</v>
       </c>
       <c r="D122">
-        <v>39.2378669</v>
+        <v>39.147564799999998</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>-84.590111199999996</v>
+        <v>-84.587963799999997</v>
       </c>
       <c r="D123">
-        <v>39.239620600000002</v>
+        <v>39.2378669</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>-84.600296799999995</v>
+        <v>-84.590111199999996</v>
       </c>
       <c r="D124">
-        <v>39.1481341</v>
+        <v>39.239620600000002</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="6">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>-84.501006200000006</v>
+        <v>-84.600296799999995</v>
       </c>
       <c r="D125">
-        <v>39.144798799999997</v>
+        <v>39.1481341</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>-84.441430499999996</v>
+        <v>-84.501006200000006</v>
       </c>
       <c r="D126">
-        <v>39.138023699999998</v>
+        <v>39.144798799999997</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="6">
         <v>2</v>
       </c>
       <c r="C127">
-        <v>-84.491449700000004</v>
+        <v>-84.441430499999996</v>
       </c>
       <c r="D127">
-        <v>39.142909000000003</v>
+        <v>39.138023699999998</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="6">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>-84.599254900000005</v>
+        <v>-84.491449700000004</v>
       </c>
       <c r="D128">
-        <v>39.151069900000003</v>
+        <v>39.142909000000003</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>-84.593486900000002</v>
+        <v>-84.599254900000005</v>
       </c>
       <c r="D129">
-        <v>39.249494900000002</v>
+        <v>39.151069900000003</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="6">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>-84.422621199999995</v>
+        <v>-84.593486900000002</v>
       </c>
       <c r="D130">
-        <v>39.1391323</v>
+        <v>39.249494900000002</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>-84.606978699999999</v>
+        <v>-84.422621199999995</v>
       </c>
       <c r="D131">
-        <v>39.152434800000002</v>
+        <v>39.1391323</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>-84.519474500000001</v>
+        <v>-84.606978699999999</v>
       </c>
       <c r="D132">
-        <v>39.147146900000003</v>
+        <v>39.152434800000002</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>-84.600433600000002</v>
+        <v>-84.519474500000001</v>
       </c>
       <c r="D133">
-        <v>39.203622500000002</v>
+        <v>39.147146900000003</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>-84.603076700000003</v>
+        <v>-84.600433600000002</v>
       </c>
       <c r="D134">
-        <v>39.192543999999998</v>
+        <v>39.203622500000002</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="6">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>-84.495378099999996</v>
+        <v>-84.603076700000003</v>
       </c>
       <c r="D135">
-        <v>39.150134899999998</v>
+        <v>39.192543999999998</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="6">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>-84.601251000000005</v>
+        <v>-84.495378099999996</v>
       </c>
       <c r="D136">
-        <v>39.214874799999997</v>
+        <v>39.150134899999998</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>-84.604559499999993</v>
+        <v>-84.601251000000005</v>
       </c>
       <c r="D137">
-        <v>39.1895247</v>
+        <v>39.214874799999997</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>-84.5617321</v>
+        <v>-84.604559499999993</v>
       </c>
       <c r="D138">
-        <v>39.152366499999999</v>
+        <v>39.1895247</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="6">
         <v>1</v>
       </c>
       <c r="C139">
-        <v>-84.608621600000006</v>
+        <v>-84.5617321</v>
       </c>
       <c r="D139">
-        <v>39.178206199999998</v>
+        <v>39.152366499999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>-84.605905000000007</v>
+        <v>-84.608621600000006</v>
       </c>
       <c r="D140">
-        <v>39.188730999999997</v>
+        <v>39.178206199999998</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>-84.410782900000001</v>
+        <v>-84.605905000000007</v>
       </c>
       <c r="D141">
-        <v>39.181248400000001</v>
+        <v>39.188730999999997</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>-84.619893000000005</v>
+        <v>-84.410782900000001</v>
       </c>
       <c r="D142">
-        <v>39.156084</v>
+        <v>39.181248400000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>-84.435769899999997</v>
+        <v>-84.619893000000005</v>
       </c>
       <c r="D143">
-        <v>39.112052400000003</v>
+        <v>39.156084</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>-84.720637999999994</v>
+        <v>-84.435769899999997</v>
       </c>
       <c r="D144">
-        <v>39.163130000000002</v>
+        <v>39.112052400000003</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="6">
         <v>2</v>
       </c>
       <c r="C145">
-        <v>-84.517835199999993</v>
+        <v>-84.720637999999994</v>
       </c>
       <c r="D145">
-        <v>39.152265200000002</v>
+        <v>39.163130000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>-84.698896300000001</v>
+        <v>-84.517835199999993</v>
       </c>
       <c r="D146">
-        <v>39.163323599999998</v>
+        <v>39.152265200000002</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>-84.437123099999994</v>
+        <v>-84.698896300000001</v>
       </c>
       <c r="D147">
-        <v>39.148202699999999</v>
+        <v>39.163323599999998</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148">
-        <v>-84.479622199999994</v>
+        <v>-84.437123099999994</v>
       </c>
       <c r="D148">
-        <v>39.148912299999999</v>
+        <v>39.148202699999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>-84.367920600000005</v>
+        <v>-84.479622199999994</v>
       </c>
       <c r="D149">
-        <v>39.144837500000001</v>
+        <v>39.148912299999999</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>-84.611418200000003</v>
+        <v>-84.367920600000005</v>
       </c>
       <c r="D150">
-        <v>39.166190100000001</v>
+        <v>39.144837500000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>-84.609098299999999</v>
+        <v>-84.611418200000003</v>
       </c>
       <c r="D151">
-        <v>39.188971199999997</v>
+        <v>39.166190100000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>-84.629196100000001</v>
+        <v>-84.609098299999999</v>
       </c>
       <c r="D152">
-        <v>39.159115499999999</v>
+        <v>39.188971199999997</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>-84.425226600000002</v>
+        <v>-84.629196100000001</v>
       </c>
       <c r="D153">
-        <v>39.147584899999998</v>
+        <v>39.159115499999999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>-84.628372499999998</v>
+        <v>-84.425226600000002</v>
       </c>
       <c r="D154">
-        <v>39.160357300000001</v>
+        <v>39.147584899999998</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155">
-        <v>-84.581294400000004</v>
+        <v>-84.628372499999998</v>
       </c>
       <c r="D155">
-        <v>39.105842600000003</v>
+        <v>39.160357300000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>-84.607026500000003</v>
+        <v>-84.581294400000004</v>
       </c>
       <c r="D156">
-        <v>39.161398800000001</v>
+        <v>39.105842600000003</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>-84.430436900000004</v>
+        <v>-84.607026500000003</v>
       </c>
       <c r="D157">
-        <v>39.1524128</v>
+        <v>39.161398800000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>-84.586407500000007</v>
+        <v>-84.430436900000004</v>
       </c>
       <c r="D158">
-        <v>39.107539099999997</v>
+        <v>39.1524128</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>-84.5430341</v>
+        <v>-84.586407500000007</v>
       </c>
       <c r="D159">
-        <v>39.161966900000003</v>
+        <v>39.107539099999997</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="6">
         <v>1</v>
       </c>
       <c r="C160">
-        <v>-84.523130199999997</v>
+        <v>-84.5430341</v>
       </c>
       <c r="D160">
-        <v>39.109707499999999</v>
+        <v>39.161966900000003</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>-84.539908199999999</v>
+        <v>-84.523130199999997</v>
       </c>
       <c r="D161">
-        <v>39.164228700000002</v>
+        <v>39.109707499999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>-84.309718899999993</v>
+        <v>-84.539908199999999</v>
       </c>
       <c r="D162">
-        <v>39.164014199999997</v>
+        <v>39.164228700000002</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>-84.611239100000006</v>
+        <v>-84.309718899999993</v>
       </c>
       <c r="D163">
-        <v>39.245703399999996</v>
+        <v>39.164014199999997</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>-84.585638299999999</v>
+        <v>-84.611239100000006</v>
       </c>
       <c r="D164">
-        <v>39.113300099999996</v>
+        <v>39.245703399999996</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>-84.3887809</v>
+        <v>-84.585638299999999</v>
       </c>
       <c r="D165">
-        <v>39.236648199999998</v>
+        <v>39.113300099999996</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>-84.453652199999993</v>
+        <v>-84.3887809</v>
       </c>
       <c r="D166">
-        <v>39.156760499999997</v>
+        <v>39.236648199999998</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>-84.448401099999998</v>
+        <v>-84.453652199999993</v>
       </c>
       <c r="D167">
-        <v>39.156779299999997</v>
+        <v>39.156760499999997</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>-84.597147500000005</v>
+        <v>-84.448401099999998</v>
       </c>
       <c r="D168">
-        <v>39.089839099999999</v>
+        <v>39.156779299999997</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169">
-        <v>-84.387304299999997</v>
+        <v>-84.597147500000005</v>
       </c>
       <c r="D169">
-        <v>39.236635200000002</v>
+        <v>39.089839099999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>-84.381392099999999</v>
+        <v>-84.387304299999997</v>
       </c>
       <c r="D170">
-        <v>39.255123300000001</v>
+        <v>39.236635200000002</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="6">
         <v>1</v>
       </c>
       <c r="C171">
-        <v>-84.475975000000005</v>
+        <v>-84.381392099999999</v>
       </c>
       <c r="D171">
-        <v>39.171467800000002</v>
+        <v>39.255123300000001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="6">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>-84.468977100000004</v>
+        <v>-84.475975000000005</v>
       </c>
       <c r="D172">
-        <v>39.172123999999997</v>
+        <v>39.171467800000002</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>-84.394904499999996</v>
+        <v>-84.468977100000004</v>
       </c>
       <c r="D173">
-        <v>39.158830500000001</v>
+        <v>39.172123999999997</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C174">
-        <v>-84.391573800000003</v>
+        <v>-84.394904499999996</v>
       </c>
       <c r="D174">
-        <v>39.158451800000002</v>
+        <v>39.158830500000001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C175">
-        <v>-84.601867499999997</v>
+        <v>-84.391573800000003</v>
       </c>
       <c r="D175">
-        <v>39.177622100000001</v>
+        <v>39.158451800000002</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>-84.409048999999996</v>
+        <v>-84.601867499999997</v>
       </c>
       <c r="D176">
-        <v>39.166127299999999</v>
+        <v>39.177622100000001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>-84.606249399999996</v>
+        <v>-84.409048999999996</v>
       </c>
       <c r="D177">
-        <v>39.124192600000001</v>
+        <v>39.166127299999999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>-84.347926700000002</v>
+        <v>-84.606249399999996</v>
       </c>
       <c r="D178">
-        <v>39.161702599999998</v>
+        <v>39.124192600000001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>-84.610666499999994</v>
+        <v>-84.347926700000002</v>
       </c>
       <c r="D179">
-        <v>39.102903400000002</v>
+        <v>39.161702599999998</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>-84.512952400000003</v>
+        <v>-84.610666499999994</v>
       </c>
       <c r="D180">
-        <v>39.184631199999998</v>
+        <v>39.102903400000002</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="6">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>-84.603245799999996</v>
+        <v>-84.512952400000003</v>
       </c>
       <c r="D181">
-        <v>39.1825902</v>
+        <v>39.184631199999998</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>-84.505586699999995</v>
+        <v>-84.603245799999996</v>
       </c>
       <c r="D182">
-        <v>39.115239000000003</v>
+        <v>39.1825902</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>-84.616187400000001</v>
+        <v>-84.505586699999995</v>
       </c>
       <c r="D183">
-        <v>39.103442100000002</v>
+        <v>39.115239000000003</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>-84.615124199999997</v>
+        <v>-84.616187400000001</v>
       </c>
       <c r="D184">
-        <v>39.104609799999999</v>
+        <v>39.103442100000002</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>-84.3698981</v>
+        <v>-84.615124199999997</v>
       </c>
       <c r="D185">
-        <v>39.270038100000001</v>
+        <v>39.104609799999999</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>-84.514968499999995</v>
+        <v>-84.3698981</v>
       </c>
       <c r="D186">
-        <v>39.186640199999999</v>
+        <v>39.270038100000001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>-84.623947200000003</v>
+        <v>-84.514968499999995</v>
       </c>
       <c r="D187">
-        <v>39.230576200000002</v>
+        <v>39.186640199999999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188">
-        <v>-84.395893400000006</v>
+        <v>-84.623947200000003</v>
       </c>
       <c r="D188">
-        <v>39.165250999999998</v>
+        <v>39.230576200000002</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" s="6">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>-84.498170299999998</v>
+        <v>-84.395893400000006</v>
       </c>
       <c r="D189">
-        <v>39.132038999999999</v>
+        <v>39.165250999999998</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>-84.620249700000002</v>
+        <v>-84.498170299999998</v>
       </c>
       <c r="D190">
-        <v>39.260541500000002</v>
+        <v>39.132038999999999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>-84.624150099999994</v>
+        <v>-84.620249700000002</v>
       </c>
       <c r="D191">
-        <v>39.104143700000002</v>
+        <v>39.260541500000002</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>-84.446475300000003</v>
+        <v>-84.624150099999994</v>
       </c>
       <c r="D192">
-        <v>39.172665100000003</v>
+        <v>39.104143700000002</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>-84.546492900000004</v>
+        <v>-84.446475300000003</v>
       </c>
       <c r="D193">
-        <v>39.191127199999997</v>
+        <v>39.172665100000003</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>-84.627931000000004</v>
+        <v>-84.546492900000004</v>
       </c>
       <c r="D194">
-        <v>39.119070000000001</v>
+        <v>39.191127199999997</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" s="6">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>-84.548468499999998</v>
+        <v>-84.627931000000004</v>
       </c>
       <c r="D195">
-        <v>39.191451000000001</v>
+        <v>39.119070000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>-84.751323099999993</v>
+        <v>-84.548468499999998</v>
       </c>
       <c r="D196">
-        <v>39.170930300000002</v>
+        <v>39.191451000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="6">
         <v>2</v>
       </c>
       <c r="C197">
-        <v>-84.6385997</v>
+        <v>-84.751323099999993</v>
       </c>
       <c r="D197">
-        <v>39.095872</v>
+        <v>39.170930300000002</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>-84.576424900000006</v>
+        <v>-84.6385997</v>
       </c>
       <c r="D198">
-        <v>39.198383700000001</v>
+        <v>39.095872</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" s="6">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>-84.667702700000007</v>
+        <v>-84.576424900000006</v>
       </c>
       <c r="D199">
-        <v>39.201052300000001</v>
+        <v>39.198383700000001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>-84.5551174</v>
+        <v>-84.667702700000007</v>
       </c>
       <c r="D200">
-        <v>39.197121699999997</v>
+        <v>39.201052300000001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C201">
-        <v>-84.423852100000005</v>
+        <v>-84.5551174</v>
       </c>
       <c r="D201">
-        <v>39.066359400000003</v>
+        <v>39.197121699999997</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="6">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>-84.372396800000004</v>
+        <v>-84.423852100000005</v>
       </c>
       <c r="D202">
-        <v>39.206586000000001</v>
+        <v>39.066359400000003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>-84.391614899999993</v>
+        <v>-84.372396800000004</v>
       </c>
       <c r="D203">
-        <v>39.143582899999998</v>
+        <v>39.206586000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>-84.534292899999997</v>
+        <v>-84.391614899999993</v>
       </c>
       <c r="D204">
-        <v>39.198117099999997</v>
+        <v>39.143582899999998</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205" s="6">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>-84.428061200000002</v>
+        <v>-84.534292899999997</v>
       </c>
       <c r="D205">
-        <v>39.179845200000003</v>
+        <v>39.198117099999997</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" s="6">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>-84.426877899999994</v>
+        <v>-84.428061200000002</v>
       </c>
       <c r="D206">
-        <v>39.180030000000002</v>
+        <v>39.179845200000003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207">
-        <v>-84.4326784</v>
+        <v>-84.426877899999994</v>
       </c>
       <c r="D207">
-        <v>39.180153199999999</v>
+        <v>39.180030000000002</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" s="6">
         <v>2</v>
       </c>
       <c r="C208">
-        <v>-84.344927100000007</v>
+        <v>-84.4326784</v>
       </c>
       <c r="D208">
-        <v>39.1748993</v>
+        <v>39.180153199999999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209">
-        <v>-84.454905299999993</v>
+        <v>-84.344927100000007</v>
       </c>
       <c r="D209">
-        <v>39.2150587</v>
+        <v>39.1748993</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210" s="6">
         <v>1</v>
       </c>
       <c r="C210">
-        <v>-84.487683399999995</v>
+        <v>-84.454905299999993</v>
       </c>
       <c r="D210">
-        <v>39.186979000000001</v>
+        <v>39.2150587</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211">
-        <v>-84.650405500000005</v>
+        <v>-84.487683399999995</v>
       </c>
       <c r="D211">
-        <v>39.157843900000003</v>
+        <v>39.186979000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212">
-        <v>-84.773373199999995</v>
+        <v>-84.650405500000005</v>
       </c>
       <c r="D212">
-        <v>39.204337500000001</v>
+        <v>39.157843900000003</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>-84.391286500000007</v>
+        <v>-84.773373199999995</v>
       </c>
       <c r="D213">
-        <v>39.0750435</v>
+        <v>39.204337500000001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>-84.491785300000004</v>
+        <v>-84.391286500000007</v>
       </c>
       <c r="D214">
-        <v>39.156484599999999</v>
+        <v>39.0750435</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="6">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>-84.567641300000005</v>
+        <v>-84.491785300000004</v>
       </c>
       <c r="D215">
-        <v>39.088911699999997</v>
+        <v>39.156484599999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="6">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>-84.520048000000003</v>
+        <v>-84.567641300000005</v>
       </c>
       <c r="D216">
-        <v>39.102090699999998</v>
+        <v>39.088911699999997</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="6">
         <v>1</v>
       </c>
       <c r="C217">
-        <v>-84.408283900000001</v>
+        <v>-84.520048000000003</v>
       </c>
       <c r="D217">
-        <v>39.184235800000003</v>
+        <v>39.102090699999998</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218">
-        <v>-84.655045799999996</v>
+        <v>-84.408283900000001</v>
       </c>
       <c r="D218">
-        <v>39.142907399999999</v>
+        <v>39.184235800000003</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219">
-        <v>-84.4935993</v>
+        <v>-84.655045799999996</v>
       </c>
       <c r="D219">
-        <v>39.14902</v>
+        <v>39.142907399999999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>-84.653388899999996</v>
+        <v>-84.4935993</v>
       </c>
       <c r="D220">
-        <v>39.186140600000002</v>
+        <v>39.14902</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>-84.5293475</v>
+        <v>-84.653388899999996</v>
       </c>
       <c r="D221">
-        <v>39.131990600000002</v>
+        <v>39.186140600000002</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222" s="6">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>-84.413532399999994</v>
+        <v>-84.5293475</v>
       </c>
       <c r="D222">
-        <v>39.185227599999997</v>
+        <v>39.131990600000002</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>-84.656680100000003</v>
+        <v>-84.413532399999994</v>
       </c>
       <c r="D223">
-        <v>39.187336899999998</v>
+        <v>39.185227599999997</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" s="6">
         <v>2</v>
       </c>
       <c r="C224">
-        <v>-84.654461800000007</v>
+        <v>-84.656680100000003</v>
       </c>
       <c r="D224">
-        <v>39.182608000000002</v>
+        <v>39.187336899999998</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="6">
         <v>2</v>
       </c>
       <c r="C225">
-        <v>-84.3791473</v>
+        <v>-84.654461800000007</v>
       </c>
       <c r="D225">
-        <v>39.093209999999999</v>
+        <v>39.182608000000002</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226">
-        <v>-84.378641099999996</v>
+        <v>-84.3791473</v>
       </c>
       <c r="D226">
-        <v>39.095527099999998</v>
+        <v>39.093209999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>-84.451817700000007</v>
+        <v>-84.378641099999996</v>
       </c>
       <c r="D227">
-        <v>39.190178400000001</v>
+        <v>39.095527099999998</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="6">
         <v>2</v>
       </c>
       <c r="C228">
-        <v>-84.636998700000007</v>
+        <v>-84.451817700000007</v>
       </c>
       <c r="D228">
-        <v>39.104602999999997</v>
+        <v>39.190178400000001</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>-84.378899200000006</v>
+        <v>-84.636998700000007</v>
       </c>
       <c r="D229">
-        <v>39.087297599999999</v>
+        <v>39.104602999999997</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" s="6">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>-84.661183300000005</v>
+        <v>-84.378899200000006</v>
       </c>
       <c r="D230">
-        <v>39.1517178</v>
+        <v>39.087297599999999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="6">
         <v>1</v>
       </c>
       <c r="C231">
-        <v>-84.510134399999998</v>
+        <v>-84.661183300000005</v>
       </c>
       <c r="D231">
-        <v>39.125386499999998</v>
+        <v>39.1517178</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>-84.662709500000005</v>
+        <v>-84.510134399999998</v>
       </c>
       <c r="D232">
-        <v>39.152055300000001</v>
+        <v>39.125386499999998</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>-84.704652899999999</v>
+        <v>-84.662709500000005</v>
       </c>
       <c r="D233">
-        <v>39.215328800000002</v>
+        <v>39.152055300000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" s="6">
         <v>2</v>
       </c>
       <c r="C234">
-        <v>-84.520544000000001</v>
+        <v>-84.704652899999999</v>
       </c>
       <c r="D234">
-        <v>39.203102000000001</v>
+        <v>39.215328800000002</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" s="6">
         <v>2</v>
       </c>
       <c r="C235">
-        <v>-84.691165999999996</v>
+        <v>-84.520544000000001</v>
       </c>
       <c r="D235">
-        <v>39.116774100000001</v>
+        <v>39.203102000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" s="6">
         <v>2</v>
       </c>
       <c r="C236">
-        <v>-84.500952900000001</v>
+        <v>-84.691165999999996</v>
       </c>
       <c r="D236">
-        <v>39.275429899999999</v>
+        <v>39.116774100000001</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" s="6">
         <v>2</v>
       </c>
       <c r="C237">
-        <v>-84.505217900000005</v>
+        <v>-84.500952900000001</v>
       </c>
       <c r="D237">
-        <v>39.235817900000001</v>
+        <v>39.275429899999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" s="6">
         <v>2</v>
       </c>
       <c r="C238">
-        <v>-84.501114000000001</v>
+        <v>-84.505217900000005</v>
       </c>
       <c r="D238">
-        <v>39.283295099999997</v>
+        <v>39.235817900000001</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" s="6">
         <v>2</v>
       </c>
       <c r="C239">
-        <v>-84.365170000000006</v>
+        <v>-84.501114000000001</v>
       </c>
       <c r="D239">
-        <v>39.124285</v>
+        <v>39.283295099999997</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" s="6">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>-84.365260599999999</v>
+        <v>-84.365170000000006</v>
       </c>
       <c r="D240">
-        <v>39.073021199999999</v>
+        <v>39.124285</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" s="6">
         <v>2</v>
       </c>
       <c r="C241">
-        <v>-84.549794800000001</v>
+        <v>-84.365260599999999</v>
       </c>
       <c r="D241">
-        <v>39.219920700000003</v>
+        <v>39.073021199999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" s="6">
         <v>2</v>
       </c>
       <c r="C242">
-        <v>-84.519843199999997</v>
+        <v>-84.549794800000001</v>
       </c>
       <c r="D242">
-        <v>39.206024200000002</v>
+        <v>39.219920700000003</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>-84.5067339</v>
+        <v>-84.519843199999997</v>
       </c>
       <c r="D243">
-        <v>39.228563700000002</v>
+        <v>39.206024200000002</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>-84.663972599999994</v>
+        <v>-84.5067339</v>
       </c>
       <c r="D244">
-        <v>39.109651800000002</v>
+        <v>39.228563700000002</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>-84.399338799999995</v>
+        <v>-84.663972599999994</v>
       </c>
       <c r="D245">
-        <v>39.197685900000003</v>
+        <v>39.109651800000002</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C246">
-        <v>-84.357960800000001</v>
+        <v>-84.399338799999995</v>
       </c>
       <c r="D246">
-        <v>39.0852389</v>
+        <v>39.197685900000003</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" s="6">
         <v>2</v>
       </c>
       <c r="C247">
-        <v>-84.463647100000003</v>
+        <v>-84.357960800000001</v>
       </c>
       <c r="D247">
-        <v>39.188437499999999</v>
+        <v>39.0852389</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="6">
         <v>2</v>
       </c>
       <c r="C248">
-        <v>-84.675454400000007</v>
+        <v>-84.463647100000003</v>
       </c>
       <c r="D248">
-        <v>39.213762600000003</v>
+        <v>39.188437499999999</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" s="6">
         <v>2</v>
       </c>
       <c r="C249">
-        <v>-84.363261899999998</v>
+        <v>-84.675454400000007</v>
       </c>
       <c r="D249">
-        <v>39.190968599999998</v>
+        <v>39.213762600000003</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" s="6">
         <v>2</v>
       </c>
       <c r="C250">
-        <v>-84.431984400000005</v>
+        <v>-84.363261899999998</v>
       </c>
       <c r="D250">
-        <v>39.198805299999997</v>
+        <v>39.190968599999998</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>-84.310709799999998</v>
+        <v>-84.431984400000005</v>
       </c>
       <c r="D251">
-        <v>39.158554199999998</v>
+        <v>39.198805299999997</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>-84.362462600000001</v>
+        <v>-84.310709799999998</v>
       </c>
       <c r="D252">
-        <v>39.191439500000001</v>
+        <v>39.158554199999998</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="6">
         <v>2</v>
       </c>
       <c r="C253">
-        <v>-84.445245999999997</v>
+        <v>-84.362462600000001</v>
       </c>
       <c r="D253">
-        <v>39.222641000000003</v>
+        <v>39.191439500000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254">
-        <v>-84.363652099999996</v>
+        <v>-84.445245999999997</v>
       </c>
       <c r="D254">
-        <v>39.204409499999997</v>
+        <v>39.222641000000003</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255" s="6">
         <v>1</v>
       </c>
       <c r="C255">
-        <v>-84.518239100000002</v>
+        <v>-84.363652099999996</v>
       </c>
       <c r="D255">
-        <v>39.170982600000002</v>
+        <v>39.204409499999997</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" s="6">
         <v>1</v>
       </c>
       <c r="C256">
-        <v>-84.394365300000004</v>
+        <v>-84.518239100000002</v>
       </c>
       <c r="D256">
-        <v>39.195687</v>
+        <v>39.170982600000002</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>-84.350158100000002</v>
+        <v>-84.394365300000004</v>
       </c>
       <c r="D257">
-        <v>39.0718022</v>
+        <v>39.195687</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" s="6">
         <v>2</v>
       </c>
       <c r="C258">
-        <v>-84.517958899999996</v>
+        <v>-84.350158100000002</v>
       </c>
       <c r="D258">
-        <v>39.211685099999997</v>
+        <v>39.0718022</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>-84.498242899999994</v>
+        <v>-84.517958899999996</v>
       </c>
       <c r="D259">
-        <v>39.214255100000003</v>
+        <v>39.211685099999997</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>-84.398108699999995</v>
+        <v>-84.498242899999994</v>
       </c>
       <c r="D260">
-        <v>39.204149200000003</v>
+        <v>39.214255100000003</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C261">
-        <v>-84.361625000000004</v>
+        <v>-84.398108699999995</v>
       </c>
       <c r="D261">
-        <v>39.228957999999999</v>
+        <v>39.204149200000003</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>-84.544140999999996</v>
+        <v>-84.361625000000004</v>
       </c>
       <c r="D262">
-        <v>39.233355000000003</v>
+        <v>39.228957999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263" s="6">
         <v>2</v>
       </c>
       <c r="C263">
-        <v>-84.382458200000002</v>
+        <v>-84.544140999999996</v>
       </c>
       <c r="D263">
-        <v>39.196125100000003</v>
+        <v>39.233355000000003</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C264">
-        <v>-84.394416699999994</v>
+        <v>-84.382458200000002</v>
       </c>
       <c r="D264">
-        <v>39.204402700000003</v>
+        <v>39.196125100000003</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" s="6">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>-84.349357600000005</v>
+        <v>-84.394416699999994</v>
       </c>
       <c r="D265">
-        <v>39.249205699999997</v>
+        <v>39.204402700000003</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" s="6">
         <v>1</v>
       </c>
       <c r="C266">
-        <v>-84.334730899999997</v>
+        <v>-84.349357600000005</v>
       </c>
       <c r="D266">
-        <v>39.074299699999997</v>
+        <v>39.249205699999997</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267" s="6">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>-84.520412699999994</v>
+        <v>-84.334730899999997</v>
       </c>
       <c r="D267">
-        <v>39.267648800000003</v>
+        <v>39.074299699999997</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>-84.465379400000003</v>
+        <v>-84.520412699999994</v>
       </c>
       <c r="D268">
-        <v>39.2729347</v>
+        <v>39.267648800000003</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" s="6">
         <v>2</v>
       </c>
       <c r="C269">
-        <v>-84.465204999999997</v>
+        <v>-84.465379400000003</v>
       </c>
       <c r="D269">
-        <v>39.231172399999998</v>
+        <v>39.2729347</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C270">
-        <v>-84.513370800000004</v>
+        <v>-84.465204999999997</v>
       </c>
       <c r="D270">
-        <v>39.105143099999999</v>
+        <v>39.231172399999998</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C271">
-        <v>-84.360982399999997</v>
+        <v>-84.513370800000004</v>
       </c>
       <c r="D271">
-        <v>39.202620500000002</v>
+        <v>39.105143099999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C272">
-        <v>-84.347385599999996</v>
+        <v>-84.360982399999997</v>
       </c>
       <c r="D272">
-        <v>39.248462799999999</v>
+        <v>39.202620500000002</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273" s="6">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>-84.450389299999998</v>
+        <v>-84.347385599999996</v>
       </c>
       <c r="D273">
-        <v>39.209963999999999</v>
+        <v>39.248462799999999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274">
-        <v>-84.329614800000002</v>
+        <v>-84.450389299999998</v>
       </c>
       <c r="D274">
-        <v>39.088065299999997</v>
+        <v>39.209963999999999</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275">
-        <v>-84.338643399999995</v>
+        <v>-84.329614800000002</v>
       </c>
       <c r="D275">
-        <v>39.279860100000001</v>
+        <v>39.088065299999997</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C276">
-        <v>-84.362014000000002</v>
+        <v>-84.338643399999995</v>
       </c>
       <c r="D276">
-        <v>39.2054805</v>
+        <v>39.279860100000001</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277" s="6">
         <v>1</v>
       </c>
       <c r="C277">
-        <v>-84.593261499999997</v>
+        <v>-84.362014000000002</v>
       </c>
       <c r="D277">
-        <v>39.221324699999997</v>
+        <v>39.2054805</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>-84.4749968</v>
+        <v>-84.593261499999997</v>
       </c>
       <c r="D278">
-        <v>39.2122156</v>
+        <v>39.221324699999997</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279">
-        <v>-84.338757700000002</v>
+        <v>-84.4749968</v>
       </c>
       <c r="D279">
-        <v>39.144149900000002</v>
+        <v>39.2122156</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>-84.473444499999999</v>
+        <v>-84.338757700000002</v>
       </c>
       <c r="D280">
-        <v>39.2130826</v>
+        <v>39.144149900000002</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281" s="6">
         <v>2</v>
       </c>
       <c r="C281">
-        <v>-84.429296199999996</v>
+        <v>-84.473444499999999</v>
       </c>
       <c r="D281">
-        <v>39.213403800000002</v>
+        <v>39.2130826</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B282" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>-84.399427399999993</v>
+        <v>-84.429296199999996</v>
       </c>
       <c r="D282">
-        <v>39.210576000000003</v>
+        <v>39.213403800000002</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>-84.321275299999996</v>
+        <v>-84.399427399999993</v>
       </c>
       <c r="D283">
-        <v>39.079416600000002</v>
+        <v>39.210576000000003</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284">
-        <v>-84.322220000000002</v>
+        <v>-84.321275299999996</v>
       </c>
       <c r="D284">
-        <v>39.060683099999999</v>
+        <v>39.079416600000002</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B285" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C285">
-        <v>-84.364266700000002</v>
+        <v>-84.322220000000002</v>
       </c>
       <c r="D285">
-        <v>39.210546200000003</v>
+        <v>39.060683099999999</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286" s="6">
         <v>2</v>
       </c>
       <c r="C286">
-        <v>-84.443235200000004</v>
+        <v>-84.364266700000002</v>
       </c>
       <c r="D286">
-        <v>39.218552199999998</v>
+        <v>39.210546200000003</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287" s="6">
         <v>2</v>
       </c>
       <c r="C287">
-        <v>-84.319652099999999</v>
+        <v>-84.443235200000004</v>
       </c>
       <c r="D287">
-        <v>39.266005999999997</v>
+        <v>39.218552199999998</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B288" s="6">
         <v>2</v>
       </c>
       <c r="C288">
-        <v>-84.734346700000003</v>
+        <v>-84.319652099999999</v>
       </c>
       <c r="D288">
-        <v>39.279323099999999</v>
+        <v>39.266005999999997</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B289" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289">
-        <v>-84.529826999999997</v>
+        <v>-84.734346700000003</v>
       </c>
       <c r="D289">
-        <v>39.115845999999998</v>
+        <v>39.279323099999999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B290" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>-84.509515800000003</v>
+        <v>-84.529826999999997</v>
       </c>
       <c r="D290">
-        <v>39.232836499999998</v>
+        <v>39.115845999999998</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B291" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291">
-        <v>-84.5286902</v>
+        <v>-84.509515800000003</v>
       </c>
       <c r="D291">
-        <v>39.2338053</v>
+        <v>39.232836499999998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B292" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C292">
-        <v>-84.376238999999998</v>
+        <v>-84.5286902</v>
       </c>
       <c r="D292">
-        <v>39.226247899999997</v>
+        <v>39.2338053</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B293" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C293">
-        <v>-84.321192800000006</v>
+        <v>-84.376238999999998</v>
       </c>
       <c r="D293">
-        <v>39.223055799999997</v>
+        <v>39.226247899999997</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B294" s="6">
         <v>1</v>
       </c>
       <c r="C294">
-        <v>-84.368429599999999</v>
+        <v>-84.321192800000006</v>
       </c>
       <c r="D294">
-        <v>39.068322999999999</v>
+        <v>39.223055799999997</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B295" s="6">
         <v>1</v>
       </c>
       <c r="C295">
-        <v>-84.482445999999996</v>
+        <v>-84.368429599999999</v>
       </c>
       <c r="D295">
-        <v>39.151806200000003</v>
+        <v>39.068322999999999</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296" s="6">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>-84.496121400000007</v>
+        <v>-84.482445999999996</v>
       </c>
       <c r="D296">
-        <v>39.116374299999997</v>
+        <v>39.151806200000003</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297" s="6">
         <v>1</v>
       </c>
       <c r="C297">
-        <v>-84.562577700000006</v>
+        <v>-84.496121400000007</v>
       </c>
       <c r="D297">
-        <v>39.1093233</v>
+        <v>39.116374299999997</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B298" s="6">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>-84.497719500000002</v>
+        <v>-84.562577700000006</v>
       </c>
       <c r="D298">
-        <v>39.111300100000001</v>
+        <v>39.1093233</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B299" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C299">
-        <v>-84.563823799999994</v>
+        <v>-84.497719500000002</v>
       </c>
       <c r="D299">
-        <v>39.109385400000001</v>
+        <v>39.111300100000001</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C300">
-        <v>-84.451804899999999</v>
+        <v>-84.563823799999994</v>
       </c>
       <c r="D300">
-        <v>39.245196</v>
+        <v>39.109385400000001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B301" s="6">
         <v>1</v>
       </c>
       <c r="C301">
-        <v>-84.464447899999996</v>
+        <v>-84.451804899999999</v>
       </c>
       <c r="D301">
-        <v>39.244470300000003</v>
+        <v>39.245196</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302" s="6">
         <v>1</v>
       </c>
       <c r="C302">
-        <v>-84.770978900000003</v>
+        <v>-84.464447899999996</v>
       </c>
       <c r="D302">
-        <v>39.267296199999997</v>
+        <v>39.244470300000003</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303" s="6">
         <v>1</v>
       </c>
       <c r="C303">
-        <v>-84.293222299999996</v>
+        <v>-84.770978900000003</v>
       </c>
       <c r="D303">
-        <v>39.196962599999999</v>
+        <v>39.267296199999997</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B304" s="6">
         <v>1</v>
       </c>
       <c r="C304">
-        <v>-84.337771599999996</v>
+        <v>-84.293222299999996</v>
       </c>
       <c r="D304">
-        <v>39.064629400000001</v>
+        <v>39.196962599999999</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B305" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>-84.362707900000004</v>
+        <v>-84.337771599999996</v>
       </c>
       <c r="D305">
-        <v>39.241354600000001</v>
+        <v>39.064629400000001</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="6">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>-84.362707900000004</v>
+      </c>
+      <c r="D306">
+        <v>39.241354600000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B307" s="6">
         <v>4</v>
       </c>
-      <c r="C306">
+      <c r="C307">
         <v>-84.780655199999998</v>
       </c>
-      <c r="D306">
+      <c r="D307">
         <v>39.2545231</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" s="8">
+        <v>0</v>
+      </c>
+      <c r="C308" s="3">
+        <v>-84.486666700000001</v>
+      </c>
+      <c r="D308" s="3">
+        <v>39.171388899999997</v>
       </c>
     </row>
   </sheetData>
